--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF6B6B"/>
         <bgColor rgb="00FF6B6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -86,6 +92,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,16 +555,16 @@
         <v>78</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>48.3</v>
+        <v>56.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-29.7</v>
+        <v>-21.77</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>29.7</v>
+        <v>21.77</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -599,17 +608,17 @@
       <c r="B5" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>40.08</v>
+      <c r="C5" s="5" t="n">
+        <v>60.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-34.42</v>
+        <v>-14.47</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>34.42</v>
+        <v>14.47</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -626,17 +635,17 @@
       <c r="B6" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>40.08</v>
+      <c r="C6" s="5" t="n">
+        <v>60.03</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-34.42</v>
+        <v>-14.47</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>34.42</v>
+        <v>14.47</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -653,17 +662,17 @@
       <c r="B7" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>70.63</v>
+      <c r="C7" s="6" t="n">
+        <v>75.69</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-16.87</v>
+        <v>-11.81</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>16.87</v>
+        <v>11.81</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -681,16 +690,16 @@
         <v>65</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>17.75</v>
+        <v>29.7</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-47.25</v>
+        <v>-35.3</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>47.25</v>
+        <v>35.3</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -762,16 +771,16 @@
         <v>51.5</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-51.5</v>
+        <v>-39.49</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>65.47</v>
+        <v>39.49</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -822,10 +831,10 @@
         <v>-41.5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>78.97</v>
+        <v>45.15</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -870,16 +879,16 @@
         <v>63.5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>14.23</v>
+        <v>21.85</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-49.27</v>
+        <v>-41.65</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>49.27</v>
+        <v>41.65</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -951,16 +960,16 @@
         <v>78</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>48.3</v>
+        <v>56.23</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-29.7</v>
+        <v>-21.77</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>29.7</v>
+        <v>21.77</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -984,10 +993,10 @@
         <v>-41.5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>78.97</v>
+        <v>45.15</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1086,16 +1095,16 @@
         <v>63.5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>14.23</v>
+        <v>21.85</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-49.27</v>
+        <v>-41.65</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>49.27</v>
+        <v>41.65</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1110,23 +1119,23 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>70.63</v>
+        <v>92.5</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>86.90562530124717</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-16.87</v>
+        <v>-5.59437469875283</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>16.87</v>
+        <v>5.594374698752825</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Excellence</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1163,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.2</v>
+        <v>33.77</v>
       </c>
     </row>
     <row r="29">
@@ -1164,7 +1173,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.49</v>
+        <v>37.37</v>
       </c>
     </row>
   </sheetData>

--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>58.66</v>
+        <v>62.82853277352308</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-17.34</v>
+        <v>-15.17146722647692</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>17.34</v>
+        <v>15.17146722647692</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>

--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>62.82853277352308</v>
+        <v>64.91220900398571</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-15.17146722647692</v>
+        <v>-14.08779099601429</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>15.17146722647692</v>
+        <v>14.08779099601428</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -957,23 +957,23 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>56.23</v>
+        <v>60.64776531782864</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-21.77</v>
+        <v>-19.35223468217136</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>21.77</v>
+        <v>19.35223468217136</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -714,23 +714,23 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>79</v>
+        <v>80.5</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>64.91220900398571</v>
+        <v>68.03772334967967</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-14.08779099601429</v>
+        <v>-12.46227665032033</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>14.08779099601428</v>
+        <v>12.46227665032033</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -537,7 +537,7 @@
         <v>95</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>86.48999999999999</v>
+        <v>86.49093270617772</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -552,23 +552,23 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>56.23</v>
+        <v>60.64776531782864</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-21.77</v>
+        <v>-19.35223468217136</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>21.77</v>
+        <v>19.35223468217136</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>86.48999999999999</v>
+        <v>86.49093270617772</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-14.47</v>
+        <v>-10.97762873788439</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>14.47</v>
+        <v>10.97762873788439</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-14.47</v>
+        <v>-10.97762873788439</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>14.47</v>
+        <v>10.97762873788439</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>87.5</v>
+        <v>91.5</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75.69</v>
+        <v>84.66243092374654</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-11.81</v>
+        <v>-6.837569076253459</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>11.81</v>
+        <v>6.837569076253453</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Excellence</t>
         </is>
       </c>
     </row>
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>65</v>
+        <v>66.5</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>29.7</v>
+        <v>32.96269956291068</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-35.3</v>
+        <v>-33.53730043708932</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>35.3</v>
+        <v>33.53730043708932</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -744,16 +744,16 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>55.35</v>
+        <v>55.3506518718915</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-25.65</v>
+        <v>-25.6493481281085</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>25.65</v>
+        <v>25.6493481281085</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>51.5</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>12.01</v>
+        <v>15.04705546591035</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-39.49</v>
+        <v>-37.95294453408965</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>39.49</v>
+        <v>37.95294453408965</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-40.5</v>
+        <v>-39.14900503763929</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>40.5</v>
+        <v>39.14900503763929</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45.15</v>
+        <v>45.14824869927797</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -852,16 +852,16 @@
         <v>81</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>55.35</v>
+        <v>55.3506518718915</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-25.65</v>
+        <v>-25.6493481281085</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>25.65</v>
+        <v>25.6493481281085</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -879,16 +879,16 @@
         <v>63.5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>21.85</v>
+        <v>21.85298835372897</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-41.65</v>
+        <v>-41.64701164627103</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>41.65</v>
+        <v>41.64701164627103</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -903,19 +903,19 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-43.2</v>
+        <v>-43.87388495597507</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>43.2</v>
+        <v>43.87388495597507</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -930,19 +930,19 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>51.5</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>-51.5</v>
+        <v>-53</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>65.47</v>
+        <v>63.44838747479471</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45.15</v>
+        <v>45.14824869927797</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>-43.2</v>
+        <v>-43.87388495597507</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>43.2</v>
+        <v>43.87388495597507</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1038,19 +1038,19 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-40.5</v>
+        <v>-39.14900503763929</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>40.5</v>
+        <v>39.14900503763929</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>29.5</v>
+        <v>31.85099496236071</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>-40.5</v>
+        <v>-39.14900503763929</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>40.5</v>
+        <v>39.14900503763929</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -1095,16 +1095,16 @@
         <v>63.5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>21.85</v>
+        <v>21.85298835372897</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-41.65</v>
+        <v>-41.64701164627103</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>41.65</v>
+        <v>41.64701164627103</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1119,19 +1119,19 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>86.90562530124717</v>
+        <v>84.66243092374654</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-5.59437469875283</v>
+        <v>-6.837569076253459</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.594374698752825</v>
+        <v>6.837569076253453</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1139,6 +1139,7 @@
         </is>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>

--- a/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment2_Grade_Comparison.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C6E0B4"/>
+        <bgColor rgb="00C6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
       </patternFill>
@@ -62,6 +68,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFEB9C"/>
         <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -95,6 +107,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +542,7 @@
           <t>48951</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>21.5</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -537,7 +555,7 @@
         <v>95</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>86.49093270617772</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -551,20 +569,20 @@
           <t>48953</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>60.64776531782864</v>
+      <c r="C3" s="6" t="n">
+        <v>60.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-19.35223468217136</v>
+        <v>-19.35</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>19.35223468217136</v>
+        <v>19.35</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -578,7 +596,7 @@
           <t>48955</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>21.5</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -591,7 +609,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>86.49093270617772</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -605,20 +623,20 @@
           <t>48956</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="7" t="n">
         <v>78</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>67.02237126211561</v>
+      <c r="C5" s="6" t="n">
+        <v>67.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-10.97762873788439</v>
+        <v>-10.98</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>10.97762873788439</v>
+        <v>10.98</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -632,20 +650,20 @@
           <t>48957</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="7" t="n">
         <v>78</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>67.02237126211561</v>
+      <c r="C6" s="6" t="n">
+        <v>67.02</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-10.97762873788439</v>
+        <v>-10.98</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>10.97762873788439</v>
+        <v>10.98</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -659,20 +677,20 @@
           <t>48961</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="8" t="n">
         <v>91.5</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>84.66243092374654</v>
+      <c r="C7" s="5" t="n">
+        <v>84.66</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-6.837569076253459</v>
+        <v>-6.84</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.837569076253453</v>
+        <v>6.84</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -686,20 +704,20 @@
           <t>48962</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="6" t="n">
         <v>66.5</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>32.96269956291068</v>
+        <v>32.96</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-33.53730043708932</v>
+        <v>-33.54</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>95</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>33.53730043708932</v>
+        <v>33.54</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -713,20 +731,20 @@
           <t>48966</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="5" t="n">
         <v>80.5</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>68.03772334967967</v>
+      <c r="C9" s="6" t="n">
+        <v>68.04000000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-12.46227665032033</v>
+        <v>-12.46</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>92</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>12.46227665032033</v>
+        <v>12.46</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -740,20 +758,20 @@
           <t>48970</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="5" t="n">
         <v>81</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>55.3506518718915</v>
+        <v>55.35</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-25.6493481281085</v>
+        <v>-25.65</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>25.6493481281085</v>
+        <v>25.65</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -767,20 +785,20 @@
           <t>48971</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>53</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>15.04705546591035</v>
+        <v>15.05</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-37.95294453408965</v>
+        <v>-37.95</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>37.95294453408965</v>
+        <v>37.95</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -794,20 +812,20 @@
           <t>48972</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="7" t="n">
         <v>71</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-39.14900503763929</v>
+        <v>-39.15</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>39.14900503763929</v>
+        <v>39.15</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -821,7 +839,7 @@
           <t>48973</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>41.5</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -834,7 +852,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45.14824869927797</v>
+        <v>45.15</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -848,20 +866,20 @@
           <t>48975</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="5" t="n">
         <v>81</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>55.3506518718915</v>
+        <v>55.35</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-25.6493481281085</v>
+        <v>-25.65</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>25.6493481281085</v>
+        <v>25.65</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -875,20 +893,20 @@
           <t>48976</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="6" t="n">
         <v>63.5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>21.85298835372897</v>
+        <v>21.85</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-41.64701164627103</v>
+        <v>-41.65</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>41.64701164627103</v>
+        <v>41.65</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -902,20 +920,20 @@
           <t>48978</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="6" t="n">
         <v>67.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>23.62611504402493</v>
+        <v>23.63</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-43.87388495597507</v>
+        <v>-43.87</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>43.87388495597507</v>
+        <v>43.87</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -929,7 +947,7 @@
           <t>48980</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>53</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -942,7 +960,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>63.44838747479471</v>
+        <v>63.45</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -956,20 +974,20 @@
           <t>48982</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>60.64776531782864</v>
+      <c r="C18" s="6" t="n">
+        <v>60.65</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-19.35223468217136</v>
+        <v>-19.35</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>96</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>19.35223468217136</v>
+        <v>19.35</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -983,7 +1001,7 @@
           <t>48987</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>41.5</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -996,7 +1014,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45.14824869927797</v>
+        <v>45.15</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1010,20 +1028,20 @@
           <t>48991</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="6" t="n">
         <v>67.5</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>23.62611504402493</v>
+        <v>23.63</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>-43.87388495597507</v>
+        <v>-43.87</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>43.87388495597507</v>
+        <v>43.87</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1037,20 +1055,20 @@
           <t>48993</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="7" t="n">
         <v>71</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-39.14900503763929</v>
+        <v>-39.15</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>39.14900503763929</v>
+        <v>39.15</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1064,20 +1082,20 @@
           <t>48994</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="7" t="n">
         <v>71</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>31.85099496236071</v>
+        <v>31.85</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>-39.14900503763929</v>
+        <v>-39.15</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>100</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>39.14900503763929</v>
+        <v>39.15</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -1091,20 +1109,20 @@
           <t>74309</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="6" t="n">
         <v>63.5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>21.85298835372897</v>
+        <v>21.85</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-41.64701164627103</v>
+        <v>-41.65</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>41.64701164627103</v>
+        <v>41.65</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1118,20 +1136,20 @@
           <t>74311</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="8" t="n">
         <v>91.5</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>84.66243092374654</v>
+      <c r="C24" s="5" t="n">
+        <v>84.66</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-6.837569076253459</v>
+        <v>-6.84</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>97</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.837569076253453</v>
+        <v>6.84</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1139,7 +1157,6 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
@@ -1154,7 +1171,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.56999999999999</v>
+        <v>65.87</v>
       </c>
     </row>
     <row r="28">
@@ -1164,7 +1181,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.77</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="29">
@@ -1174,7 +1191,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>37.37</v>
+        <v>35.86</v>
       </c>
     </row>
   </sheetData>
